--- a/cs/MinimalRTDServer/MinimalRTDServer/test_rtd_server.xlsx
+++ b/cs/MinimalRTDServer/MinimalRTDServer/test_rtd_server.xlsx
@@ -70,10 +70,10 @@
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
     <main first="t004314.sample.rtdserver">
-      <tp>
-        <v>179</v>
+      <tp t="s">
+        <v>05:17:33:83</v>
         <stp/>
-        <stp>200</stp>
+        <stp>0</stp>
         <tr r="D5" s="1"/>
       </tp>
     </main>
@@ -370,18 +370,18 @@
   <dimension ref="D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="4" max="4" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="68.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="4:4" ht="91.8">
-      <c r="D5" s="1">
-        <f>RTD("t004314.sample.rtdserver",,200)</f>
-        <v>179</v>
+      <c r="D5" s="1" t="str">
+        <f>RTD("t004314.sample.rtdserver",,0)</f>
+        <v>05:17:33:83</v>
       </c>
     </row>
   </sheetData>
